--- a/Sales_Cloud_Automation/src/main/java/com/sca/resources/TestData2..xlsx
+++ b/Sales_Cloud_Automation/src/main/java/com/sca/resources/TestData2..xlsx
@@ -2,14 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gitesh\Desktop\Salesforce_Automation New\Salesforce_Automation-main\Salesforce_Automation-main\Sales_Cloud_Automation\src\main\java\com\sca\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16920" windowHeight="8004" tabRatio="804" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13440" windowHeight="6135" tabRatio="804" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="CampaignData" sheetId="1" r:id="rId1"/>
@@ -29,6 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Index!$B$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:M18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -211,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1084,18 +1080,18 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1113,13 +1109,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1127,7 +1123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1146,16 +1142,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1166,7 +1163,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1190,12 +1187,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1206,7 +1203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1230,12 +1227,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1243,7 +1240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1264,22 +1261,22 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="78.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
@@ -1290,7 +1287,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>35</v>
       </c>
@@ -1301,7 +1298,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>36</v>
       </c>
@@ -1312,7 +1309,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>37</v>
       </c>
@@ -1321,7 +1318,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>38</v>
       </c>
@@ -1332,7 +1329,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>39</v>
       </c>
@@ -1341,7 +1338,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>40</v>
       </c>
@@ -1352,7 +1349,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>41</v>
       </c>
@@ -1363,7 +1360,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>42</v>
       </c>
@@ -1374,7 +1371,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>43</v>
       </c>
@@ -1385,7 +1382,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>44</v>
       </c>
@@ -1399,7 +1396,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>45</v>
       </c>
@@ -1410,7 +1407,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>46</v>
       </c>
@@ -1421,7 +1418,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>47</v>
       </c>
@@ -1435,14 +1432,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>49</v>
       </c>
@@ -1453,7 +1450,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>50</v>
       </c>
@@ -1464,7 +1461,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>52</v>
       </c>
@@ -1485,17 +1482,17 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1513,17 +1510,17 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1541,13 +1538,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1555,7 +1552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1576,18 +1573,18 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1607,9 +1604,9 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1617,7 +1614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1638,17 +1635,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
